--- a/evaluations/data_visualization.xlsx
+++ b/evaluations/data_visualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drumd\Documents\GitHub\cse573-stance-detection\evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F38EE-890C-4D65-9B38-368B84B3A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F84F34-90D9-4486-BD21-CD996B615F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1392" windowWidth="17280" windowHeight="8964" xr2:uid="{ABE6313A-9CBB-4054-8F34-69E65B04F786}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABE6313A-9CBB-4054-8F34-69E65B04F786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Accuracy</t>
   </si>
@@ -55,22 +55,64 @@
     <t>KNN-S</t>
   </si>
   <si>
-    <t>Naïve Bayes-S</t>
-  </si>
-  <si>
     <t>SVM-S</t>
   </si>
   <si>
-    <t>fastText-SS</t>
+    <t>fastText-Semi</t>
   </si>
   <si>
-    <t>KNN-SS</t>
+    <t>KNN-Semi</t>
   </si>
   <si>
-    <t>Naïve Bayes-SS</t>
+    <t>Naïve Bayes-Semi</t>
   </si>
   <si>
-    <t>SVM-SS</t>
+    <t>SVM-Semi</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>fastText</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>SA + TM</t>
+  </si>
+  <si>
+    <t>NB-Semi</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Sentiment+Topic</t>
+  </si>
+  <si>
+    <t>NB-S</t>
+  </si>
+  <si>
+    <t>Supervised</t>
+  </si>
+  <si>
+    <t>Semi-supervised</t>
+  </si>
+  <si>
+    <t>Unsupervised</t>
   </si>
 </sst>
 </file>
@@ -114,6 +156,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5757"/>
+      <color rgb="FFBC0000"/>
+      <color rgb="FFFF2929"/>
+      <color rgb="FFFF7979"/>
+      <color rgb="FFB42222"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -123,6 +174,2888 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F1 ScoreS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sentiment+Topic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B42222"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Topic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF2929"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.20466000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN-Semi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.32080999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fastText-Semi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33534999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM-Semi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.35664000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB-Semi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.37570999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sentiment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF5757"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.41406999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN-S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.54190000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB-S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.56533999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fastText-S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.59126999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM-S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.60838000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1DB6-4D8B-8552-C1EA5C609108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1534107872"/>
+        <c:axId val="1534114944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1534107872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1534114944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1534114944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1534107872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F1 Scores - All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Models</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$17:$D$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>KNN-S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>fastText-S</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NB-S</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SVM-S</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>KNN-Semi</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>fastText-Semi</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>NB-Semi</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SVM-Semi</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Sentiment</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Topic</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Sentiment+Topic</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Supervised</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Semi-supervised</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Unsupervised</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.54190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59126999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56533999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60838000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32080999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33534999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37570999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C2A-424C-9E05-D9B17222D8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661499519"/>
+        <c:axId val="661486623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661499519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661486623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661486623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661499519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE9769D-1420-48B8-9089-D5DB8F35192A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE8924A-8C1A-45D3-8054-9A27AA036232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,15 +3355,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E594D5E-32EA-4312-804A-589055720372}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
@@ -449,7 +3383,7 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0.59945000000000004</v>
@@ -466,7 +3400,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0.57201999999999997</v>
@@ -483,7 +3417,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0.58572999999999997</v>
@@ -500,7 +3434,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0.61453999999999998</v>
@@ -517,7 +3451,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0.27572000000000002</v>
@@ -534,7 +3468,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1.234E-2</v>
@@ -551,7 +3485,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7.8179999999999999E-2</v>
@@ -568,7 +3502,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>3.1550000000000002E-2</v>
@@ -581,9 +3515,136 @@
       </c>
       <c r="F9">
         <v>5.5669999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0.41406999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.20466000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0.11096</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0.54190000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0.59126999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>0.56533999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.60838000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0.32080999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.33534999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>0.37570999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.35664000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>0.41406999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>0.20466000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>0.11096</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/evaluations/data_visualization.xlsx
+++ b/evaluations/data_visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drumd\Documents\GitHub\cse573-stance-detection\evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F84F34-90D9-4486-BD21-CD996B615F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2742720-EDAB-45BB-9071-C2539F2E8E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABE6313A-9CBB-4054-8F34-69E65B04F786}"/>
   </bookViews>
@@ -2985,16 +2985,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3021,16 +3021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3357,7 +3357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E594D5E-32EA-4312-804A-589055720372}">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:E27"/>
     </sheetView>
   </sheetViews>
